--- a/biology/Médecine/Amédée_Lefèvre/Amédée_Lefèvre.xlsx
+++ b/biology/Médecine/Amédée_Lefèvre/Amédée_Lefèvre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Am%C3%A9d%C3%A9e_Lef%C3%A8vre</t>
+          <t>Amédée_Lefèvre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amédée Lefèvre (Paris, 4 juin 1798 - Rochefort, 12 décembre 1869), est un médecin de marine français. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Am%C3%A9d%C3%A9e_Lef%C3%A8vre</t>
+          <t>Amédée_Lefèvre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un commis de la marine, il entre dans la marine en 1810 comme mousse sur la frégate Elbe à Rochefort. Novice timonier sur le Foudroyant (1814), il passe en 1815 sur le Duc-d'Angoulême puis s'engage dans le service médical. Il est alors admis à l'Ecole de médecine navale de Rochefort en janvier 1816.
 Chirurgien de 3e classe (mai 1818), il sert en 1823 sur l' Isère lors d'une longue compagne qui le mène sur les côtes espagnoles, au Sénégal et en Guyane dont il rapporte d'importantes collections d'histoire naturelle qui lui apportent les félicitions du Conseil de santé et du Muséum. À son retour, il est nommé professeur de botanique médicale à Rochefort et est aussi chargé de la surveillance des étudiants. 
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Am%C3%A9d%C3%A9e_Lef%C3%A8vre</t>
+          <t>Amédée_Lefèvre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Perforations spontanées de l'estomac, 1842
 De l'Asthme, recherches médicales sur la nature, les causes et le traitement de cette maladie, 1847
